--- a/src/accounts.xlsx
+++ b/src/accounts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amit\PycharmProjects\appstore-automation\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A6465F-77E5-48BF-98A9-D6AEB642E525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4942B5-92BA-449E-A225-676C1F9A16FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24360" yWindow="3615" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26655" yWindow="1335" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>SN</t>
   </si>
@@ -41,13 +41,16 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>example@outlook.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +62,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -93,16 +104,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -403,17 +417,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -438,7 +448,21 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>1234</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{A096B95E-2D68-48B7-80AD-9DAF6FF4D15D}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>